--- a/zoldsegek.xlsx
+++ b/zoldsegek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projektZoldseg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BodriDavid\Documents\GitHub\zoldsegek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D6C3B4-9F44-44A1-970F-9BA454BFBB16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489BA60-5052-4840-88A7-A311AF1C86CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A7E70902-8224-4D11-94CF-E9285770ABEC}"/>
   </bookViews>
@@ -78,17 +78,17 @@
     <t>-</t>
   </si>
   <si>
-    <t>paradicsom</t>
-  </si>
-  <si>
     <t>koktelparadicsom</t>
+  </si>
+  <si>
+    <t>paradicsom etkezesi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,12 +168,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301BDE43-749F-497F-BE8A-8851510FB942}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,461 +506,648 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>